--- a/biology/Botanique/Bartolomeo_Ambrosini/Bartolomeo_Ambrosini.xlsx
+++ b/biology/Botanique/Bartolomeo_Ambrosini/Bartolomeo_Ambrosini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bartolomeo Ambrosini est un médecin et un  botaniste italien, né en 1588 à Bologne et mort en 1657.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bartolomeo Ambrosini est le frère aîné du botaniste Giacinto Ambrosini (1605-1672)[1].
-Il fait paraître en 1630 Capsicorum Varietate cum suis iconibus ; accessit panacea ex herbis quæ a sanctis denominantur. Il s’illustre dans le combat contre la peste qui touche la ville en 1630 et publie sur ce sujet l’année suivante Modo e facile preserva, è cura di peste a beneficio de popolo di Bologna[1].
-Il publie également Theorica medicina in tabulas veluti digesta (1632), Pulsibus (1645) et d'autres ouvrages de médecine. Il supervise également l'édition de certains ouvrages de son maître, Ulisse Aldrovandi (1522-1605). Ambrosini enseigne la philosophie et la botanique à l’université de Bologne et dirige aussi son jardin botanique. Son frère le remplace à sa mort[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bartolomeo Ambrosini est le frère aîné du botaniste Giacinto Ambrosini (1605-1672).
+Il fait paraître en 1630 Capsicorum Varietate cum suis iconibus ; accessit panacea ex herbis quæ a sanctis denominantur. Il s’illustre dans le combat contre la peste qui touche la ville en 1630 et publie sur ce sujet l’année suivante Modo e facile preserva, è cura di peste a beneficio de popolo di Bologna.
+Il publie également Theorica medicina in tabulas veluti digesta (1632), Pulsibus (1645) et d'autres ouvrages de médecine. Il supervise également l'édition de certains ouvrages de son maître, Ulisse Aldrovandi (1522-1605). Ambrosini enseigne la philosophie et la botanique à l’université de Bologne et dirige aussi son jardin botanique. Son frère le remplace à sa mort.
 </t>
         </is>
       </c>
